--- a/posesiones/1381249.xlsx
+++ b/posesiones/1381249.xlsx
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>12</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>19</v>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>17</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>24</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>13</v>
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>27</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>10</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>12</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>38</v>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>14</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>18</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>7</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45">
         <v>18</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>23</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56">
         <v>17</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>13</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R59">
         <v>11</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R61">
         <v>8</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R65">
         <v>20</v>
@@ -5039,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R66">
         <v>22</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>8</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>33</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>9</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>15</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>11</v>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>19</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5898,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>10</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R90">
         <v>13</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R92">
         <v>14</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R94">
         <v>8</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R96">
         <v>19</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R98">
         <v>21</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>23</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -7362,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7782,10 +7782,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R123">
         <v>20</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R125">
         <v>6</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R127">
         <v>9</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R129">
         <v>16</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R133">
         <v>30</v>
@@ -8388,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R134">
         <v>17</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R145">
         <v>41</v>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R146">
         <v>11</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R147">
         <v>21</v>
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R148">
         <v>17</v>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9176,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R150">
         <v>13</v>
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R152">
         <v>5</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9473,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R156">
         <v>31</v>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9576,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R158">
         <v>5</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9676,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R160">
         <v>6</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9776,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R162">
         <v>24</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9879,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R164">
         <v>22</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9979,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>18</v>
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R167">
         <v>24</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R169">
         <v>19</v>
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R174">
         <v>11</v>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10479,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R176">
         <v>11</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10767,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R183">
         <v>10</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10920,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R185">
         <v>13</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11020,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R187">
         <v>19</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R189">
         <v>24</v>
@@ -11173,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R191">
         <v>12</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11646,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>24</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R204">
         <v>24</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R206">
         <v>24</v>
@@ -11996,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12046,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R208">
         <v>17</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12431,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R216">
         <v>18</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12813,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13048,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13098,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R230">
         <v>13</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13386,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R236">
         <v>14</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:17">
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:17">
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:17">
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:17">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -13997,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:17">
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -14138,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -14185,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:17">
@@ -14232,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:17">
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:17">
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14373,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14470,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R259">
         <v>9</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14573,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R261">
         <v>2</v>
@@ -14617,10 +14617,10 @@
         <v>1</v>
       </c>
       <c r="P262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15043,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15225,10 +15225,10 @@
         <v>1</v>
       </c>
       <c r="P275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q275">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R276">
         <v>13</v>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15375,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15472,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R280">
         <v>0</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R281">
         <v>25</v>
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R283">
         <v>5</v>
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R287">
         <v>27</v>
@@ -15878,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R288">
         <v>16</v>
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R292">
         <v>14</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16175,7 +16175,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R294">
         <v>5</v>
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R296">
         <v>15</v>
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16381,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R298">
         <v>11</v>
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R299">
         <v>12</v>
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16634,7 +16634,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R303">
         <v>11</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R304">
         <v>16</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16790,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R306">
         <v>10</v>
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16931,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17028,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17078,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R312">
         <v>31</v>
@@ -17128,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17222,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R319">
         <v>15</v>
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R324">
         <v>27</v>
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17798,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17848,7 +17848,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R328">
         <v>0</v>
@@ -17901,7 +17901,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R329">
         <v>22</v>
@@ -17954,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18098,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R333">
         <v>15</v>
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R337">
         <v>16</v>
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R340">
         <v>10</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18548,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18601,7 +18601,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R343">
         <v>15</v>
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R347">
         <v>19</v>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18898,7 +18898,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R349">
         <v>14</v>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19042,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19089,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19227,7 +19227,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R356">
         <v>19</v>
@@ -19280,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R357">
         <v>17</v>
@@ -19330,7 +19330,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19427,7 +19427,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R360">
         <v>13</v>
@@ -19480,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R361">
         <v>19</v>
@@ -19530,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19674,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R365">
         <v>15</v>
@@ -19727,7 +19727,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R366">
         <v>16</v>
@@ -19777,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19827,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R368">
         <v>18</v>
@@ -19880,7 +19880,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19930,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R370">
         <v>18</v>
@@ -19983,7 +19983,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20077,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20124,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20171,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20268,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R377">
         <v>3</v>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20362,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20409,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20459,7 +20459,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R381">
         <v>15</v>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20559,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R383">
         <v>17</v>
@@ -20609,7 +20609,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20797,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20844,7 +20844,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20891,7 +20891,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20941,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R391">
         <v>24</v>
@@ -20991,7 +20991,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21038,7 +21038,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21132,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21326,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R399">
         <v>9</v>
@@ -21376,7 +21376,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21564,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21614,7 +21614,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R405">
         <v>21</v>
@@ -21664,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21711,7 +21711,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21758,7 +21758,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21805,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21899,7 +21899,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21946,7 +21946,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21993,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22040,7 +22040,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22090,7 +22090,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R415">
         <v>0</v>
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22193,7 +22193,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R417">
         <v>11</v>
@@ -22237,10 +22237,10 @@
         <v>1</v>
       </c>
       <c r="P418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q418">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22287,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22334,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22475,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22522,7 +22522,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22569,7 +22569,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22663,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22751,10 +22751,10 @@
         <v>1</v>
       </c>
       <c r="P429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q429">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22895,7 +22895,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22992,7 +22992,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R434">
         <v>30</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23092,7 +23092,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R436">
         <v>21</v>
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23189,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23236,7 +23236,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23286,7 +23286,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R440">
         <v>27</v>
@@ -23339,7 +23339,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R441">
         <v>17</v>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23533,7 +23533,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R445">
         <v>0</v>
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23683,7 +23683,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R448">
         <v>27</v>
@@ -23736,7 +23736,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23836,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23886,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R452">
         <v>10</v>
@@ -23936,7 +23936,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24030,7 +24030,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R455">
         <v>24</v>
@@ -24080,7 +24080,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R459">
         <v>27</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24324,7 +24324,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R461">
         <v>24</v>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24427,7 +24427,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R463">
         <v>14</v>
@@ -24480,7 +24480,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24530,7 +24530,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R465">
         <v>8</v>
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24677,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24777,7 +24777,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R470">
         <v>23</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24874,7 +24874,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24921,7 +24921,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25015,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25159,7 +25159,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R478">
         <v>18</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25262,7 +25262,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R480">
         <v>12</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R482">
         <v>5</v>
@@ -25415,7 +25415,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25465,7 +25465,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R484">
         <v>27</v>
@@ -25518,7 +25518,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R485">
         <v>7</v>
@@ -25568,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25618,7 +25618,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R487">
         <v>14</v>
@@ -25671,7 +25671,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25721,7 +25721,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R489">
         <v>20</v>
@@ -25774,7 +25774,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R490">
         <v>18</v>
@@ -25824,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26015,7 +26015,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R495">
         <v>19</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26112,7 +26112,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26159,7 +26159,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26209,7 +26209,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R499">
         <v>10</v>
@@ -26259,7 +26259,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26306,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26356,7 +26356,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R502">
         <v>14</v>
@@ -26409,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26459,7 +26459,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R504">
         <v>23</v>
@@ -26509,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26556,7 +26556,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26600,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26650,7 +26650,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R508">
         <v>30</v>
@@ -26703,7 +26703,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R509">
         <v>6</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26803,7 +26803,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R511">
         <v>4</v>
@@ -26853,7 +26853,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26903,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R513">
         <v>16</v>
@@ -26953,7 +26953,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27000,7 +27000,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27094,7 +27094,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27141,7 +27141,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27188,7 +27188,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27238,7 +27238,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R520">
         <v>0</v>
@@ -27291,7 +27291,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R521">
         <v>21</v>
@@ -27341,7 +27341,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27391,7 +27391,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R523">
         <v>8</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27488,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27535,7 +27535,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27585,7 +27585,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R527">
         <v>3</v>
@@ -27638,7 +27638,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R528">
         <v>10</v>
@@ -27688,7 +27688,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27735,7 +27735,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27829,7 +27829,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27926,7 +27926,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R534">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28120,7 +28120,7 @@
         <v>1</v>
       </c>
       <c r="Q538">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R538">
         <v>12</v>
@@ -28173,7 +28173,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28223,7 +28223,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R540">
         <v>11</v>
@@ -28276,7 +28276,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28326,7 +28326,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R542">
         <v>4</v>
@@ -28376,7 +28376,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28423,7 +28423,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28473,7 +28473,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28802,7 +28802,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -28896,7 +28896,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -28993,7 +28993,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R556">
         <v>15</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29084,10 +29084,10 @@
         <v>1</v>
       </c>
       <c r="P558" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q558">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29128,7 +29128,7 @@
         <v>0</v>
       </c>
       <c r="Q559">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
